--- a/tables/means_sd.xlsx
+++ b/tables/means_sd.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">study_id</t>
   </si>
   <si>
+    <t xml:space="preserve">natural_es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converted_es</t>
+  </si>
+  <si>
     <t xml:space="preserve">mean_exp</t>
   </si>
   <si>
@@ -57,6 +63,12 @@
   </si>
   <si>
     <t xml:space="preserve">means_sd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D+G+MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR+R+Z</t>
   </si>
   <si>
     <t xml:space="preserve">101.2</t>
@@ -464,104 +476,128 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2"/>
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
-      <c r="M2" t="n">
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2" t="n">
         <v>10</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
       <c r="K3"/>
       <c r="L3"/>
-      <c r="M3" t="n">
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3" t="n">
         <v>20</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" t="n">
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4" t="n">
         <v>45</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>55</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>55</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>65</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>59</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>64</v>
       </c>
     </row>
